--- a/results/I3_N5_M3_T45_C100_DepCentral_s1_P2_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s1_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1388.392139807019</v>
+        <v>1833.400726831333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.64645279649577</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.73758956385238</v>
+        <v>9.935004806263807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.733276574377637</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1215.409999999998</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.34</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.30463804208573</v>
+        <v>41.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.60181147454999</v>
+        <v>3.914294316987416</v>
       </c>
     </row>
     <row r="6">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33.69536195791427</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.23104729676617</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.51610579153741</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,15 +1115,127 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
@@ -1237,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9">
@@ -1248,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -1259,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11">
@@ -1270,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
@@ -1281,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>47.0449999999997</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1292,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>45.22499999999971</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1303,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>46.65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1314,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>51.52499999999971</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1325,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>49.26499999999971</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1336,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>132.1149999999988</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -1347,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.7649999999988</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1358,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>121.5599999999988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -1369,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>134.4949999999988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1380,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>132.0099999999988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1391,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
@@ -1402,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000009</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
@@ -1413,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000009</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
@@ -1424,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -1435,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
@@ -1446,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
@@ -1457,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29">
@@ -1468,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
@@ -1479,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32">
@@ -1501,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.6100000000003</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
@@ -1512,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.5950000000003</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
@@ -1523,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.2400000000003</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
@@ -1534,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.4400000000003</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
@@ -1545,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>113.6550000000003</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37">
@@ -1556,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.6150000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1567,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.8100000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1578,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.4650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1589,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1600,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.1300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1611,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>132.1149999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1622,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>133.7649999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1633,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>121.5599999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1644,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>134.4949999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1655,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>132.0099999999988</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6100000000003</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
@@ -1713,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5950000000003</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -1724,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.24000000000029</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -1735,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4400000000003</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -1746,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.65500000000029</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -1757,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>77.61500000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1768,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>71.81000000000085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1779,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>78.46500000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1790,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>77.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1801,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13000000000088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1812,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>32.11499999999882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1823,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>33.76499999999885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1834,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>21.55999999999884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1845,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4949999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1856,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>32.00999999999883</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1914,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1925,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1936,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1947,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1958,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1969,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1991,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2002,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2013,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2024,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2035,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2046,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2057,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2181,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,7 +2375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2274,7 +2386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2285,7 +2397,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2296,7 +2408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2307,7 +2419,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2318,7 +2430,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2329,7 +2441,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2340,7 +2452,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2351,7 +2463,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2362,34 +2474,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
